--- a/db_files/entries_2020.xlsx
+++ b/db_files/entries_2020.xlsx
@@ -1204,15 +1204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G41" sqref="G1:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1231,11 @@
       <c r="F1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1254,11 @@
       <c r="F2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1277,11 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1300,11 @@
       <c r="F4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1323,11 @@
       <c r="F5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1346,11 @@
       <c r="F6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1369,11 @@
       <c r="F7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1392,11 @@
       <c r="F8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1415,11 @@
       <c r="F9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1438,11 @@
       <c r="F10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1431,8 +1461,11 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1484,11 @@
       <c r="F12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1507,11 @@
       <c r="F13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1491,8 +1530,11 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1553,11 @@
       <c r="F15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1531,8 +1576,11 @@
       <c r="F16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1599,11 @@
       <c r="F17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1571,8 +1622,11 @@
       <c r="F18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1591,8 +1645,11 @@
       <c r="F19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1611,8 +1668,11 @@
       <c r="F20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1631,8 +1691,11 @@
       <c r="F21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1651,8 +1714,11 @@
       <c r="F22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1671,8 +1737,11 @@
       <c r="F23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1691,8 +1760,11 @@
       <c r="F24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1711,8 +1783,11 @@
       <c r="F25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1731,8 +1806,11 @@
       <c r="F26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1751,8 +1829,11 @@
       <c r="F27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1771,8 +1852,11 @@
       <c r="F28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1791,8 +1875,11 @@
       <c r="F29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1811,8 +1898,11 @@
       <c r="F30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1831,8 +1921,11 @@
       <c r="F31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1851,8 +1944,11 @@
       <c r="F32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1871,8 +1967,11 @@
       <c r="F33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1891,8 +1990,11 @@
       <c r="F34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1911,8 +2013,11 @@
       <c r="F35" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1931,8 +2036,11 @@
       <c r="F36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1951,8 +2059,11 @@
       <c r="F37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1971,8 +2082,11 @@
       <c r="F38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1991,8 +2105,11 @@
       <c r="F39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2011,8 +2128,11 @@
       <c r="F40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2030,6 +2150,9 @@
       </c>
       <c r="F41" t="s">
         <v>125</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
